--- a/Assets/Gimicks/Tables/DT_Gimicks.xlsx
+++ b/Assets/Gimicks/Tables/DT_Gimicks.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E02C4-4BAE-449F-92F7-BC55FA72F030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B4E9B-1C16-4C35-9948-2C8EA67ACE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
     <sheet name="TestGimick" sheetId="2" r:id="rId2"/>
+    <sheet name="TestGimick_choise" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -77,6 +78,10 @@
   </si>
   <si>
     <t>Flag_TestGimick_DownFrag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestChoise_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F49BB-6053-48AE-AACD-64FE52C0E962}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -548,4 +553,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6764B-B232-4E15-BB53-3D464BA42B1E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Gimicks/Tables/DT_Gimicks.xlsx
+++ b/Assets/Gimicks/Tables/DT_Gimicks.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k2\Documents\GitHub\Lave\lavender\Assets\Gimicks\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B4E9B-1C16-4C35-9948-2C8EA67ACE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B24B39-E388-4CC6-9C23-F02DAE6FC974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stretcher" sheetId="1" r:id="rId1"/>
     <sheet name="TestGimick" sheetId="2" r:id="rId2"/>
     <sheet name="TestGimick_choise" sheetId="3" r:id="rId3"/>
+    <sheet name="TestGimick_voice" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Flag_Stretcher_Collided</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +83,10 @@
   </si>
   <si>
     <t>TXT_TestChoise_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TXT_TestVoice_001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6764B-B232-4E15-BB53-3D464BA42B1E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -606,4 +611,57 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F096D2-34E8-4D85-AB4C-FD02C6C39DC3}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>